--- a/px-files/excellent_db/tables.xlsx
+++ b/px-files/excellent_db/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="table_user" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t xml:space="preserve">User Master Table</t>
   </si>
@@ -154,12 +154,18 @@
     <t xml:space="preserve">Projects</t>
   </si>
   <si>
+    <t xml:space="preserve">project_account</t>
+  </si>
+  <si>
     <t xml:space="preserve">project_id</t>
   </si>
   <si>
     <t xml:space="preserve">Project ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Owner User ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">user.user_id</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Project Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Account Name</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -629,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -640,7 +649,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.32"/>
   </cols>
@@ -952,17 +961,17 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.32"/>
   </cols>
@@ -978,139 +987,161 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="n">
         <v>1</v>
@@ -1122,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1221,7 +1252,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1234,7 +1265,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.32"/>
@@ -1242,7 +1273,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -1251,184 +1282,176 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>14</v>
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="F13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1448,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1459,14 +1482,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -1491,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,17 +1569,17 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>1</v>
@@ -1585,18 +1608,18 @@
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1608,17 +1631,17 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="n">
@@ -1628,13 +1651,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
